--- a/financial_models/opportunities/0083.HK_Valuation_v1.00.xlsx
+++ b/financial_models/opportunities/0083.HK_Valuation_v1.00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC36089-A2A2-4871-92ED-BCEDDFD2D79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{912807D8-EC4F-46FD-A76A-05507512E791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="267">
   <si>
     <t>Company Info:</t>
   </si>
@@ -437,10 +437,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>- Interest</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit/Sales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -569,9 +565,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Valuation Drivers</t>
-  </si>
-  <si>
     <t>External Drivers</t>
   </si>
   <si>
@@ -766,10 +759,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Upper</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Lower</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -878,9 +867,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Pessimistic Case</t>
-  </si>
-  <si>
     <t>3. Upward earnings trend?</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -949,6 +935,14 @@
   </si>
   <si>
     <t>Choice of Discount Rate</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Case Valuation</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1256,7 +1250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1503,13 +1497,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="283">
+  <cellXfs count="284">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2140,6 +2145,9 @@
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3555,8 +3563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3569,28 +3577,28 @@
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C6" s="190">
         <v>45593</v>
@@ -3606,7 +3614,7 @@
     </row>
     <row r="8" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
@@ -3614,15 +3622,15 @@
     </row>
     <row r="9" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C10" s="194">
         <v>8171879936</v>
@@ -3630,7 +3638,7 @@
     </row>
     <row r="11" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>2</v>
@@ -3654,7 +3662,7 @@
     </row>
     <row r="14" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3662,10 +3670,10 @@
     </row>
     <row r="15" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
@@ -3679,61 +3687,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3858,7 +3866,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>124</v>
+        <v>261</v>
       </c>
       <c r="C29" s="151">
         <v>94</v>
@@ -3994,7 +4002,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C36" s="218"/>
       <c r="D36" s="151">
@@ -4080,7 +4088,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C41" s="218"/>
       <c r="D41" s="151">
@@ -4098,7 +4106,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C42" s="218"/>
       <c r="D42" s="151">
@@ -4116,7 +4124,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C43" s="218"/>
       <c r="D43" s="151"/>
@@ -4132,7 +4140,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C44" s="251">
         <v>0.57999999999999996</v>
@@ -4150,11 +4158,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.4838709677419346E-2</v>
+        <v>7.5916230366492143E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4199,13 +4207,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
@@ -4225,7 +4233,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C49" s="59">
         <v>843</v>
@@ -4274,7 +4282,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C53" s="59">
         <v>0</v>
@@ -4406,7 +4414,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C63" s="59">
         <v>0</v>
@@ -4607,7 +4615,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C83" s="59">
         <v>165790</v>
@@ -4627,7 +4635,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4635,26 +4643,26 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>129</v>
-      </c>
-      <c r="C89" s="267">
+        <v>128</v>
+      </c>
+      <c r="C89" s="268">
         <f>C24</f>
         <v>45473</v>
       </c>
-      <c r="D89" s="267"/>
+      <c r="D89" s="268"/>
       <c r="E89" s="89" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4663,10 +4671,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C90" s="268" t="s">
+      <c r="C90" s="269" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="268"/>
+      <c r="D90" s="269"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4676,7 +4684,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4715,7 +4723,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4736,7 +4744,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>124</v>
+        <v>261</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4754,10 +4762,10 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C95" s="77">
-        <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
+        <f>ABS(MAX(C33,0)-C32)</f>
         <v>91</v>
       </c>
       <c r="D95" s="160">
@@ -4778,7 +4786,7 @@
         <v>110</v>
       </c>
       <c r="C96" s="77">
-        <f>C31</f>
+        <f>MAX(C31,0)</f>
         <v>910</v>
       </c>
       <c r="D96" s="160">
@@ -4793,10 +4801,10 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C97" s="77">
-        <f>MAX(C30,0)</f>
+        <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
       <c r="D97" s="160">
@@ -4811,16 +4819,13 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="D98" s="167">
-        <f>C98/C96</f>
-        <v>6.3736263736263732E-4</v>
-      </c>
+      <c r="D98" s="267"/>
       <c r="E98" s="255">
         <f>F98</f>
         <v>0.57999999999999996</v>
@@ -4900,8 +4905,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:H6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4942,19 +4947,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C3" s="273" t="str">
+        <v>196</v>
+      </c>
+      <c r="C3" s="274" t="str">
         <f>Inputs!C4</f>
         <v>0083.HK</v>
       </c>
-      <c r="D3" s="274"/>
+      <c r="D3" s="275"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.75</v>
+        <v>7.64</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4962,42 +4967,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="275" t="str">
+        <v>197</v>
+      </c>
+      <c r="C4" s="276" t="str">
         <f>Inputs!C5</f>
         <v>SINO LAND</v>
       </c>
-      <c r="D4" s="276"/>
+      <c r="D4" s="277"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="279">
+      <c r="G4" s="280">
         <f>Inputs!C10</f>
         <v>8171879936</v>
       </c>
-      <c r="H4" s="279"/>
+      <c r="H4" s="280"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" s="277">
+        <v>164</v>
+      </c>
+      <c r="C5" s="278">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="278"/>
+      <c r="D5" s="279"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="271">
+      <c r="G5" s="272">
         <f>G3*G4/1000000</f>
-        <v>63332.069503999999</v>
-      </c>
-      <c r="H5" s="271"/>
+        <v>62433.16271104</v>
+      </c>
+      <c r="H5" s="272"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5020,16 +5025,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="272" t="str">
+      <c r="G6" s="273" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="272"/>
+      <c r="H6" s="273"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -5054,40 +5059,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5100,29 +5105,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5132,12 +5137,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5147,7 +5152,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5155,21 +5160,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C20" s="172">
         <f>Fin_Analysis!I75</f>
         <v>0.60969766115231028</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5177,7 +5182,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5188,58 +5193,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C23" s="172">
         <f>Fin_Analysis!I80</f>
         <v>0.02</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.38079360677264962</v>
+        <v>0.3753887942894249</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C24" s="172">
         <f>Fin_Analysis!I81</f>
         <v>1.0724472333143184E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>2.9775938395332185E-2</v>
+        <v>3.0204649550238803E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
         <v>1.038220193953223E-2</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
@@ -5248,18 +5253,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C26" s="172">
         <f>Fin_Analysis!I83</f>
         <v>0.22552196235025673</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.4838709677419346E-2</v>
+        <v>7.5916230366492143E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5269,62 +5274,62 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="G28" s="269" t="s">
-        <v>246</v>
-      </c>
-      <c r="H28" s="269"/>
+        <v>242</v>
+      </c>
+      <c r="G28" s="270" t="s">
+        <v>262</v>
+      </c>
+      <c r="H28" s="270"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.1765386011830241</v>
+        <v>7.1914157034068271</v>
       </c>
       <c r="D29" s="129">
-        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.805406015210636</v>
+        <f>G29*(1+G20)</f>
+        <v>12.456189170629852</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>8.4429865896270879</v>
-      </c>
-      <c r="G29" s="270">
-        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>7.9900209439159831</v>
-      </c>
-      <c r="H29" s="270"/>
+        <v>8.4604890628315612</v>
+      </c>
+      <c r="G29" s="271">
+        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
+        <v>10.831468844025959</v>
+      </c>
+      <c r="H29" s="271"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5334,7 +5339,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C34" s="226" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5345,14 +5350,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5362,7 +5367,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5372,14 +5377,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5389,7 +5394,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5404,14 +5409,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6369,10 +6374,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="H15" sqref="H15"/>
+      <selection pane="topRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6399,16 +6404,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="149" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" s="148" t="s">
         <v>206</v>
-      </c>
-      <c r="G2" s="149" t="s">
-        <v>207</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>208</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6426,7 +6431,7 @@
         <v>45473</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6459,7 +6464,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6470,7 +6475,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6826,7 +6831,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6877,7 +6882,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6928,7 +6933,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6979,7 +6984,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7081,7 +7086,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>124</v>
+        <v>261</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7234,7 +7239,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7489,7 +7494,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="235" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C25" s="234">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7540,7 +7545,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7744,7 +7749,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8050,7 +8055,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8101,7 +8106,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8152,7 +8157,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8203,7 +8208,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8254,7 +8259,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C40" s="156">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8305,7 +8310,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8374,7 +8379,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8527,7 +8532,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C46" s="154">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8578,7 +8583,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8629,7 +8634,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C48" s="154">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8680,7 +8685,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8698,7 +8703,7 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C50" s="157">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
@@ -8749,7 +8754,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C51" s="154">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
@@ -8800,7 +8805,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -10307,8 +10312,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10476,7 +10481,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -10523,7 +10528,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10634,7 +10639,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11046,7 +11051,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11514,7 +11519,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11528,11 +11533,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="280">
+      <c r="D56" s="281">
         <f>I15+I34</f>
         <v>867</v>
       </c>
-      <c r="E56" s="278"/>
+      <c r="E56" s="279"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11543,11 +11548,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="279">
+      <c r="D57" s="280">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="278"/>
+      <c r="E57" s="279"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11559,11 +11564,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="279">
+      <c r="D58" s="280">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="278"/>
+      <c r="E58" s="279"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11580,7 +11585,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11615,7 +11620,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11636,7 +11641,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11657,7 +11662,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C64" s="209"/>
       <c r="D64" s="209"/>
@@ -11672,7 +11677,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11703,7 +11708,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11717,7 +11722,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11738,7 +11743,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C69" s="209"/>
       <c r="D69" s="209"/>
@@ -11753,7 +11758,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11775,21 +11780,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>129</v>
-      </c>
-      <c r="C72" s="267">
+        <v>128</v>
+      </c>
+      <c r="C72" s="268">
         <f>Data!C5</f>
         <v>45473</v>
       </c>
-      <c r="D72" s="267"/>
-      <c r="E72" s="281" t="s">
-        <v>210</v>
-      </c>
-      <c r="F72" s="281"/>
-      <c r="H72" s="281" t="s">
-        <v>209</v>
-      </c>
-      <c r="I72" s="281"/>
+      <c r="D72" s="268"/>
+      <c r="E72" s="282" t="s">
+        <v>208</v>
+      </c>
+      <c r="F72" s="282"/>
+      <c r="H72" s="282" t="s">
+        <v>207</v>
+      </c>
+      <c r="I72" s="282"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11799,23 +11804,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C73" s="268" t="s">
+      <c r="C73" s="269" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="268"/>
-      <c r="E73" s="282" t="s">
+      <c r="D73" s="269"/>
+      <c r="E73" s="283" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="268"/>
-      <c r="H73" s="282" t="s">
+      <c r="F73" s="269"/>
+      <c r="H73" s="283" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="268"/>
+      <c r="I73" s="269"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11887,7 +11892,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11917,7 +11922,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11947,7 +11952,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -12005,12 +12010,12 @@
         <v>0.02</v>
       </c>
       <c r="K80" s="182" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>124</v>
+        <v>261</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12040,7 +12045,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12070,7 +12075,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C83" s="164">
         <f>C79-C81-C82-C80</f>
@@ -12121,7 +12126,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="264" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C85" s="258">
         <f>C83*(1-I84)</f>
@@ -12152,7 +12157,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C86" s="168">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12173,28 +12178,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.559067953618091E-2</v>
+        <v>1.5815152670864144E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4813281996110149E-2</v>
+        <v>2.5170541291865665E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9775938395332185E-2</v>
+        <v>3.0204649550238803E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12224,21 +12229,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4838709677419346E-2</v>
+        <v>7.5916230366492143E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4838709677419346E-2</v>
+        <v>7.5916230366492143E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4838709677419346E-2</v>
+        <v>7.5916230366492143E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12249,34 +12254,35 @@
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="s">
-        <v>157</v>
+      <c r="B91" s="106" t="str">
+        <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
+        <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C92" s="199" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E92" s="281" t="s">
-        <v>210</v>
-      </c>
-      <c r="F92" s="281"/>
+        <v>157</v>
+      </c>
+      <c r="E92" s="282" t="s">
+        <v>208</v>
+      </c>
+      <c r="F92" s="282"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="281" t="s">
-        <v>209</v>
-      </c>
-      <c r="I92" s="281"/>
+      <c r="H92" s="282" t="s">
+        <v>207</v>
+      </c>
+      <c r="I92" s="282"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12293,24 +12299,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>3.2935609529022254</v>
+        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
+        <v>3.299305784467621</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>4.0488988185491435</v>
+        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
+        <v>4.0573339252140252</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12318,18 +12324,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>12.606674873852846</v>
+        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
+        <v>12.669992355295395</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>12.606674873852846</v>
+        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
+        <v>12.669992355295395</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12348,51 +12354,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>217</v>
+        <v>115</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>16450.143825185631</v>
+        <v>16484.414555089374</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
-        <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>1.6374818820698531</v>
+        <f>PV(C94,D93,0,-F93)</f>
+        <v>1.6403380786723751</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
-        <f>PV(C94,D93,0,-I93)*Exchange_Rate</f>
-        <v>2.0130182961593661</v>
+        <f>PV(C94,D93,0,-I93)</f>
+        <v>2.0172120349529048</v>
       </c>
       <c r="I97" s="123">
-        <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>2.9413784110591101</v>
+        <f>PV(C93,D93,0,-I93)</f>
+        <v>2.9475062106784531</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
@@ -12410,7 +12416,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12418,7 +12424,7 @@
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
-        <f>IF(H99&gt;0,H99*0.85,H99*1.15)</f>
+        <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>8.1391816229444913</v>
       </c>
       <c r="F99" s="215"/>
@@ -12435,27 +12441,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>94174.043825185625</v>
+        <v>94208.314555089368</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.0254935641292811</v>
+        <v>9.0284897866726066</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>9.7122964310828266</v>
+        <v>9.7151526276853488</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.618227722505036</v>
+        <v>10.621752690203067</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.524159013927248</v>
+        <v>11.528352752720787</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>12.452519128826992</v>
+        <v>12.458646928446337</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12465,58 +12471,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>217</v>
+        <v>115</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>51219.263341963437</v>
+        <v>51476.513948376894</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.3275836382367681</v>
+        <v>5.3543416201410468</v>
       </c>
       <c r="E103" s="123">
-        <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>6.2677454567491386</v>
+        <f>PV(C94,D93,0,-F94)</f>
+        <v>6.2992254354600554</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.2677454567491386</v>
+        <v>6.2992254354600554</v>
       </c>
       <c r="H103" s="123">
-        <f>PV(C94,D93,0,-I94)*Exchange_Rate</f>
-        <v>6.2677454567491386</v>
+        <f>PV(C94,D93,0,-I94)</f>
+        <v>6.2992254354600554</v>
       </c>
       <c r="I103" s="109">
-        <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>9.1582929015942813</v>
+        <f>PV(C93,D93,0,-I94)</f>
+        <v>9.2042907596055823</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12526,58 +12532,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>217</v>
+        <v>115</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>65293.491839806804</v>
+        <v>65433.78739086823</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>7.1765386011830241</v>
+        <v>7.1914157034068271</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>7.9900209439159831</v>
+        <v>8.0071890315727021</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>8.4429865896270879</v>
+        <v>8.4604890628315612</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>8.8959522353381928</v>
+        <v>8.9137890940904221</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.805406015210636</v>
+        <v>10.831468844025959</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12586,7 +12592,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
